--- a/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
+++ b/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/work_handian/clinicalinvestv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4F2EB-C7D5-034E-A0C3-53B106A76CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4DC4D2-2347-E94C-AFFA-2286B0A698E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="460" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="460" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="980">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3110,10 +3110,6 @@
     <t>accessory_qita</t>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>出生情况</t>
     <rPh sb="0" eb="1">
       <t>chu'sheng</t>
@@ -3414,7 +3410,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3638,7 +3634,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5244,7 +5246,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>精力充沛</a:t>
               </a:r>
@@ -5329,7 +5332,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>健忘</a:t>
               </a:r>
@@ -5414,7 +5418,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>精神不集中</a:t>
               </a:r>
@@ -5499,7 +5504,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>神疲乏力</a:t>
               </a:r>
@@ -5584,7 +5590,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>学习、工作压力大</a:t>
               </a:r>
@@ -5606,8 +5613,8 @@
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
@@ -5669,9 +5676,30 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>个人</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
-                <a:t>个人/家庭遭遇较大变故</a:t>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>家庭遭遇较大变故</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5754,7 +5782,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>悲伤欲哭</a:t>
               </a:r>
@@ -5839,7 +5868,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -5924,7 +5954,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>乐观开朗</a:t>
               </a:r>
@@ -6009,7 +6040,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>思虑过度</a:t>
               </a:r>
@@ -6094,7 +6126,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>喜怒无常</a:t>
               </a:r>
@@ -6179,7 +6212,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>烦躁易怒</a:t>
               </a:r>
@@ -6264,7 +6298,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>焦虑</a:t>
               </a:r>
@@ -6288,8 +6323,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1892300</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6349,7 +6384,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>悲伤欲哭</a:t>
               </a:r>
@@ -6434,7 +6470,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>抑郁</a:t>
               </a:r>
@@ -6519,7 +6556,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>多思多虑</a:t>
               </a:r>
@@ -6604,7 +6642,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -6689,7 +6728,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -6774,7 +6814,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>畏寒</a:t>
               </a:r>
@@ -6859,7 +6900,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>五心烦热</a:t>
               </a:r>
@@ -6944,7 +6986,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>午后潮热</a:t>
               </a:r>
@@ -7029,7 +7072,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>低烧不退</a:t>
               </a:r>
@@ -7114,7 +7158,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -7199,7 +7244,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>多汗</a:t>
               </a:r>
@@ -7284,7 +7330,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>稍微活动则汗出明显</a:t>
               </a:r>
@@ -7369,7 +7416,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>自汗</a:t>
               </a:r>
@@ -7454,7 +7502,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>盗汗</a:t>
               </a:r>
@@ -7539,7 +7588,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>烘热汗出</a:t>
               </a:r>
@@ -7624,7 +7674,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>潮热汗出</a:t>
               </a:r>
@@ -7709,7 +7760,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -7794,7 +7846,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>气短</a:t>
               </a:r>
@@ -7879,7 +7932,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>喜叹息</a:t>
               </a:r>
@@ -7964,7 +8018,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>少气懒言</a:t>
               </a:r>
@@ -8049,7 +8104,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -8073,8 +8129,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1460500</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8134,7 +8190,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>淡白无华</a:t>
               </a:r>
@@ -8219,7 +8276,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>苍白</a:t>
               </a:r>
@@ -8304,7 +8362,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>青白</a:t>
               </a:r>
@@ -8389,7 +8448,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>萎黄</a:t>
               </a:r>
@@ -8474,7 +8534,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>黄肿</a:t>
               </a:r>
@@ -8559,7 +8620,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>潮红</a:t>
               </a:r>
@@ -8644,7 +8706,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>晦黯</a:t>
               </a:r>
@@ -8729,7 +8792,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>白而浮肿</a:t>
               </a:r>
@@ -8814,7 +8878,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>白而暗淡</a:t>
               </a:r>
@@ -8899,7 +8964,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>面目黧黑</a:t>
               </a:r>
@@ -8984,7 +9050,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>少华</a:t>
               </a:r>
@@ -9069,7 +9136,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无华</a:t>
               </a:r>
@@ -9154,7 +9222,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -9239,7 +9308,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>心烦</a:t>
               </a:r>
@@ -9324,7 +9394,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>心悸</a:t>
               </a:r>
@@ -9409,7 +9480,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -9494,7 +9566,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>憋胀</a:t>
               </a:r>
@@ -9579,7 +9652,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>刺痛</a:t>
               </a:r>
@@ -9664,7 +9738,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>胀痛</a:t>
               </a:r>
@@ -9749,7 +9824,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>触痛</a:t>
               </a:r>
@@ -9834,7 +9910,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -9919,7 +9996,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>胀闷</a:t>
               </a:r>
@@ -10004,7 +10082,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>隐痛</a:t>
               </a:r>
@@ -10089,7 +10168,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>刺痛</a:t>
               </a:r>
@@ -10174,7 +10254,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -10259,7 +10340,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>酸痛</a:t>
               </a:r>
@@ -10344,7 +10426,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>酸软</a:t>
               </a:r>
@@ -10429,7 +10512,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>酸冷</a:t>
               </a:r>
@@ -10514,7 +10598,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>冷痛</a:t>
               </a:r>
@@ -10599,7 +10684,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>腰痛如折</a:t>
               </a:r>
@@ -10684,7 +10770,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -10769,7 +10856,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>胀痛拒按</a:t>
               </a:r>
@@ -10854,7 +10942,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>小腹坠胀</a:t>
               </a:r>
@@ -10939,7 +11028,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>小腹憋胀</a:t>
               </a:r>
@@ -11024,7 +11114,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>小腹冷痛</a:t>
               </a:r>
@@ -11109,7 +11200,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>小腹灼痛</a:t>
               </a:r>
@@ -11194,7 +11286,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>隐痛喜按</a:t>
               </a:r>
@@ -11279,9 +11372,30 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>冷痛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
-                <a:t>冷痛,得温痛减</a:t>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>得温痛减</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -11364,7 +11478,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>小腹结块，痛如针刺</a:t>
               </a:r>
@@ -11388,8 +11503,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1701800</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11449,7 +11564,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>有空坠感</a:t>
               </a:r>
@@ -11534,7 +11650,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>耳鸣</a:t>
               </a:r>
@@ -11619,7 +11736,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>耳聋</a:t>
               </a:r>
@@ -11704,7 +11822,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>听力不清，声音重复</a:t>
               </a:r>
@@ -11789,7 +11908,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -11874,7 +11994,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>咽干</a:t>
               </a:r>
@@ -11959,7 +12080,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>咽痛</a:t>
               </a:r>
@@ -12044,7 +12166,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>咽痒</a:t>
               </a:r>
@@ -12129,7 +12252,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>异物感</a:t>
               </a:r>
@@ -12214,7 +12338,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口中无异味</a:t>
               </a:r>
@@ -12299,7 +12424,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口苦</a:t>
               </a:r>
@@ -12384,7 +12510,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口干</a:t>
               </a:r>
@@ -12469,7 +12596,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口淡</a:t>
               </a:r>
@@ -12554,7 +12682,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口咸</a:t>
               </a:r>
@@ -12639,7 +12768,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口甜</a:t>
               </a:r>
@@ -12724,7 +12854,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口粘</a:t>
               </a:r>
@@ -12809,7 +12940,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>但欲漱水不欲咽</a:t>
               </a:r>
@@ -12894,7 +13026,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>纳呆食少</a:t>
               </a:r>
@@ -12979,7 +13112,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>食欲旺盛，多食易饥</a:t>
               </a:r>
@@ -13064,7 +13198,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>厌食</a:t>
               </a:r>
@@ -13149,7 +13284,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>喜热饮</a:t>
               </a:r>
@@ -13234,7 +13370,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>喜冷饮</a:t>
               </a:r>
@@ -13319,7 +13456,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>食欲减退、食少</a:t>
               </a:r>
@@ -13404,7 +13542,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>食后腹胀</a:t>
               </a:r>
@@ -13489,7 +13628,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>喜辛辣</a:t>
               </a:r>
@@ -13574,7 +13714,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>喜生冷</a:t>
               </a:r>
@@ -13659,7 +13800,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>渴多不饮</a:t>
               </a:r>
@@ -13744,7 +13886,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -13829,7 +13972,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>一般</a:t>
               </a:r>
@@ -13914,7 +14058,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>多梦易醒</a:t>
               </a:r>
@@ -13999,7 +14144,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>难以入眠</a:t>
               </a:r>
@@ -14084,7 +14230,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>彻夜不眠</a:t>
               </a:r>
@@ -14169,7 +14316,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>多梦</a:t>
               </a:r>
@@ -14254,7 +14402,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>嗜睡</a:t>
               </a:r>
@@ -14339,7 +14488,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>色黄，通畅，成形不干燥</a:t>
               </a:r>
@@ -14424,7 +14574,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>便秘</a:t>
               </a:r>
@@ -14509,7 +14660,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>质稀</a:t>
               </a:r>
@@ -14594,7 +14746,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>时干时稀</a:t>
               </a:r>
@@ -14679,7 +14832,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>泄泻</a:t>
               </a:r>
@@ -14764,7 +14918,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>天亮前泄泻</a:t>
               </a:r>
@@ -14849,7 +15004,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>质黏，有排不尽之感</a:t>
               </a:r>
@@ -14873,8 +15029,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>89</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -14934,7 +15090,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>大便中夹有未消化食物</a:t>
               </a:r>
@@ -15019,7 +15176,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -15104,7 +15262,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无力</a:t>
               </a:r>
@@ -15189,7 +15348,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>麻木</a:t>
               </a:r>
@@ -15274,7 +15434,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>困重</a:t>
               </a:r>
@@ -15359,7 +15520,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肢冷</a:t>
               </a:r>
@@ -15444,7 +15606,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>冰凉</a:t>
               </a:r>
@@ -15468,8 +15631,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1231900</xdr:colOff>
-          <xdr:row>108</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15529,7 +15692,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>手足心热</a:t>
               </a:r>
@@ -15614,7 +15778,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>浮肿</a:t>
               </a:r>
@@ -15699,7 +15864,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无</a:t>
               </a:r>
@@ -15784,7 +15950,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口唇爪甲淡白</a:t>
               </a:r>
@@ -15869,7 +16036,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>性欲减退</a:t>
               </a:r>
@@ -15954,7 +16122,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -15978,8 +16147,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>977900</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16039,7 +16208,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>短赤</a:t>
               </a:r>
@@ -16063,8 +16233,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1003300</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16124,7 +16294,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>短黄</a:t>
               </a:r>
@@ -16209,7 +16380,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>清长</a:t>
               </a:r>
@@ -16294,7 +16466,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>夜尿频</a:t>
               </a:r>
@@ -16318,8 +16491,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1155700</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16379,7 +16552,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>小便频数</a:t>
               </a:r>
@@ -16464,7 +16638,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>尿急</a:t>
               </a:r>
@@ -16549,7 +16724,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>少尿</a:t>
               </a:r>
@@ -16634,7 +16810,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>余沥不尽</a:t>
               </a:r>
@@ -16719,7 +16896,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>尿痛</a:t>
               </a:r>
@@ -16804,7 +16982,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -16889,7 +17068,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>头晕</a:t>
               </a:r>
@@ -16974,7 +17154,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>头痛</a:t>
               </a:r>
@@ -17059,7 +17240,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>头沉重</a:t>
               </a:r>
@@ -17144,7 +17326,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>正常</a:t>
               </a:r>
@@ -17229,7 +17412,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>目眩</a:t>
               </a:r>
@@ -17314,7 +17498,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>目涩</a:t>
               </a:r>
@@ -17399,7 +17584,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>眼花</a:t>
               </a:r>
@@ -17484,7 +17670,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>目痛</a:t>
               </a:r>
@@ -17569,7 +17756,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>目痒</a:t>
               </a:r>
@@ -17654,7 +17842,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>晨起眼睑浮肿</a:t>
               </a:r>
@@ -17739,7 +17928,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>淡红</a:t>
               </a:r>
@@ -17824,7 +18014,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>淡白</a:t>
               </a:r>
@@ -17909,7 +18100,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>偏红</a:t>
               </a:r>
@@ -17994,7 +18186,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>淡黯</a:t>
               </a:r>
@@ -18079,7 +18272,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>紫黯</a:t>
               </a:r>
@@ -18164,10 +18358,27 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>有瘀点或瘀斑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
-                <a:t>有瘀点或瘀斑  </a:t>
+                <a:t>  </a:t>
               </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -18249,7 +18460,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>白</a:t>
               </a:r>
@@ -18334,7 +18546,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>黄</a:t>
               </a:r>
@@ -18419,7 +18632,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>腻</a:t>
               </a:r>
@@ -18504,7 +18718,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>薄</a:t>
               </a:r>
@@ -18589,7 +18804,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>厚</a:t>
               </a:r>
@@ -18674,7 +18890,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>润</a:t>
               </a:r>
@@ -18759,7 +18976,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>滑</a:t>
               </a:r>
@@ -18844,7 +19062,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>黄厚腻</a:t>
               </a:r>
@@ -18868,8 +19087,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2527300</xdr:colOff>
-          <xdr:row>73</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -18929,7 +19148,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>白润</a:t>
               </a:r>
@@ -19014,7 +19234,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>黄糙</a:t>
               </a:r>
@@ -19099,7 +19320,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无苔</a:t>
               </a:r>
@@ -19184,7 +19406,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>少苔</a:t>
               </a:r>
@@ -19269,7 +19492,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>花剥</a:t>
               </a:r>
@@ -19354,7 +19578,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>瘦薄</a:t>
               </a:r>
@@ -19439,7 +19664,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>胖大</a:t>
               </a:r>
@@ -19524,7 +19750,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>边尖红</a:t>
               </a:r>
@@ -19609,7 +19836,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>有齿痕</a:t>
               </a:r>
@@ -19694,7 +19922,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>中有裂纹</a:t>
               </a:r>
@@ -19779,7 +20008,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>实</a:t>
               </a:r>
@@ -19864,7 +20094,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>浮</a:t>
               </a:r>
@@ -19949,7 +20180,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>沉</a:t>
               </a:r>
@@ -20034,7 +20266,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>迟</a:t>
               </a:r>
@@ -20119,7 +20352,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>缓</a:t>
               </a:r>
@@ -20204,7 +20438,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>细</a:t>
               </a:r>
@@ -20289,7 +20524,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>弱</a:t>
               </a:r>
@@ -20374,7 +20610,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>数</a:t>
               </a:r>
@@ -20459,7 +20696,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>滑</a:t>
               </a:r>
@@ -20544,7 +20782,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>涩</a:t>
               </a:r>
@@ -20629,7 +20868,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>弦</a:t>
               </a:r>
@@ -20714,7 +20954,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>紧</a:t>
               </a:r>
@@ -20799,7 +21040,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>芤</a:t>
               </a:r>
@@ -20884,7 +21126,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>濡</a:t>
               </a:r>
@@ -20969,7 +21212,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>洪</a:t>
               </a:r>
@@ -21054,7 +21298,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>有力</a:t>
               </a:r>
@@ -21139,7 +21384,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无力</a:t>
               </a:r>
@@ -21224,9 +21470,50 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>早产（</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
-                <a:t>早产（28周-37周）</a:t>
+                <a:t>28</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>周</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>-37</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>周）</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -21309,7 +21596,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>足月产</a:t>
               </a:r>
@@ -21394,7 +21682,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>阴道分娩</a:t>
               </a:r>
@@ -21479,7 +21768,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>剖宫产</a:t>
               </a:r>
@@ -21564,7 +21854,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无</a:t>
               </a:r>
@@ -21649,7 +21940,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>吸烟</a:t>
               </a:r>
@@ -21734,7 +22026,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>饮酒</a:t>
               </a:r>
@@ -21819,7 +22112,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -21904,7 +22198,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>运动减肥</a:t>
               </a:r>
@@ -21989,7 +22284,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>节食减肥</a:t>
               </a:r>
@@ -22074,7 +22370,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>药物减肥</a:t>
               </a:r>
@@ -22098,8 +22395,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1993900</xdr:colOff>
-          <xdr:row>126</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>125</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -22159,7 +22456,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -22244,7 +22542,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下量少</a:t>
               </a:r>
@@ -22329,7 +22628,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下量可</a:t>
               </a:r>
@@ -22414,7 +22714,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下量多</a:t>
               </a:r>
@@ -22499,7 +22800,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下色黄</a:t>
               </a:r>
@@ -22584,7 +22886,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下色白</a:t>
               </a:r>
@@ -22669,7 +22972,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下色绿</a:t>
               </a:r>
@@ -22754,7 +23058,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下质清稀</a:t>
               </a:r>
@@ -22839,7 +23144,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>带下质粘稠</a:t>
               </a:r>
@@ -22924,7 +23230,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无</a:t>
               </a:r>
@@ -23009,7 +23316,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经不调</a:t>
               </a:r>
@@ -23094,7 +23402,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>阴道炎</a:t>
               </a:r>
@@ -23179,7 +23488,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>子宫内膜炎</a:t>
               </a:r>
@@ -23264,7 +23574,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>子宫内膜异位症</a:t>
               </a:r>
@@ -23349,7 +23660,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>子宫腺肌症</a:t>
               </a:r>
@@ -23434,7 +23746,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>盆腔炎</a:t>
               </a:r>
@@ -23519,7 +23832,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>子宫肌瘤</a:t>
               </a:r>
@@ -23604,7 +23918,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>卵巢囊肿</a:t>
               </a:r>
@@ -23689,7 +24004,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>乳腺增生</a:t>
               </a:r>
@@ -23774,7 +24090,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>甲状腺相关疾病</a:t>
               </a:r>
@@ -23859,7 +24176,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>生殖器官发育异常</a:t>
               </a:r>
@@ -23944,7 +24262,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>脑垂体瘤</a:t>
               </a:r>
@@ -24029,7 +24348,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肥胖</a:t>
               </a:r>
@@ -24114,7 +24434,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肝炎</a:t>
               </a:r>
@@ -24199,7 +24520,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -24284,7 +24606,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经周期紊乱</a:t>
               </a:r>
@@ -24369,7 +24692,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经量多</a:t>
               </a:r>
@@ -24454,7 +24778,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经周期缩短</a:t>
               </a:r>
@@ -24539,7 +24864,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经延后</a:t>
               </a:r>
@@ -24624,7 +24950,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>行经期延长</a:t>
               </a:r>
@@ -24709,7 +25036,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经停闭</a:t>
               </a:r>
@@ -24794,7 +25122,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>经间期出血</a:t>
               </a:r>
@@ -24879,7 +25208,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>结扎</a:t>
               </a:r>
@@ -24964,7 +25294,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>宫内节育器</a:t>
               </a:r>
@@ -25049,7 +25380,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>避孕套</a:t>
               </a:r>
@@ -25134,7 +25466,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>口服避孕药</a:t>
               </a:r>
@@ -25219,7 +25552,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>崩漏</a:t>
               </a:r>
@@ -25304,7 +25638,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经过多</a:t>
               </a:r>
@@ -25326,8 +25661,8 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
           <xdr:row>185</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -25389,7 +25724,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>月经先期</a:t>
               </a:r>
@@ -25474,7 +25810,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>经期延长</a:t>
               </a:r>
@@ -25559,7 +25896,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>经间期出血</a:t>
               </a:r>
@@ -25644,7 +25982,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肾阴虚证</a:t>
               </a:r>
@@ -25729,7 +26068,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肾阳虚证</a:t>
               </a:r>
@@ -25814,7 +26154,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肾气虚证</a:t>
               </a:r>
@@ -25899,7 +26240,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>气虚下陷证</a:t>
               </a:r>
@@ -25984,7 +26326,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>虚热证</a:t>
               </a:r>
@@ -26069,7 +26412,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>心脾两虚证</a:t>
               </a:r>
@@ -26154,7 +26498,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>脾肾阳虚证</a:t>
               </a:r>
@@ -26239,7 +26584,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>气血亏虚证</a:t>
               </a:r>
@@ -26324,7 +26670,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肝肾阴虚证</a:t>
               </a:r>
@@ -26409,7 +26756,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -26494,7 +26842,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肝郁血热证</a:t>
               </a:r>
@@ -26579,7 +26928,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>阳盛血热证</a:t>
               </a:r>
@@ -26664,7 +27014,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肝经湿热证</a:t>
               </a:r>
@@ -26749,7 +27100,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>痰热瘀阻证</a:t>
               </a:r>
@@ -26834,7 +27186,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>痰湿阻滞证</a:t>
               </a:r>
@@ -26919,7 +27272,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>痰瘀阻滞证</a:t>
               </a:r>
@@ -27004,7 +27358,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>痰热互结证</a:t>
               </a:r>
@@ -27089,7 +27444,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>血瘀证</a:t>
               </a:r>
@@ -27174,7 +27530,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>气滞血瘀证</a:t>
               </a:r>
@@ -27259,7 +27616,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>寒凝血瘀证</a:t>
               </a:r>
@@ -27344,7 +27702,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -27429,7 +27788,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肾虚血瘀证</a:t>
               </a:r>
@@ -27514,7 +27874,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肾虚瘀热证</a:t>
               </a:r>
@@ -27599,7 +27960,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肾虚肝郁证</a:t>
               </a:r>
@@ -27684,7 +28046,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>气虚血瘀证</a:t>
               </a:r>
@@ -27769,7 +28132,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>阴虚血瘀证</a:t>
               </a:r>
@@ -27854,10 +28218,27 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>阴虚火旺证</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
-                <a:t>阴虚火旺证 </a:t>
+                <a:t> </a:t>
               </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -27939,7 +28320,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>肝郁脾虚证</a:t>
               </a:r>
@@ -28024,7 +28406,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -28109,7 +28492,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>多囊卵巢综合征</a:t>
               </a:r>
@@ -28194,7 +28578,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>高泌乳素血症</a:t>
               </a:r>
@@ -28279,7 +28664,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>低促性腺激素性疾病</a:t>
               </a:r>
@@ -28364,7 +28750,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>高空</a:t>
               </a:r>
@@ -28449,7 +28836,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>低温</a:t>
               </a:r>
@@ -28534,7 +28922,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>噪声</a:t>
               </a:r>
@@ -28619,7 +29008,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>辐射</a:t>
               </a:r>
@@ -28704,7 +29094,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>化工印染</a:t>
               </a:r>
@@ -28789,7 +29180,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>剧烈运动</a:t>
               </a:r>
@@ -28874,7 +29266,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>汽油</a:t>
               </a:r>
@@ -28959,7 +29352,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无</a:t>
               </a:r>
@@ -29044,7 +29438,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无特殊</a:t>
               </a:r>
@@ -29129,7 +29524,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>素食</a:t>
               </a:r>
@@ -29214,7 +29610,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>酸</a:t>
               </a:r>
@@ -29299,7 +29696,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>甜</a:t>
               </a:r>
@@ -29384,7 +29782,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>咸</a:t>
               </a:r>
@@ -29469,7 +29868,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>辛辣</a:t>
               </a:r>
@@ -29554,7 +29954,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>油</a:t>
               </a:r>
@@ -29639,7 +30040,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>生冷</a:t>
               </a:r>
@@ -29724,7 +30126,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>含咖啡因食物或饮品</a:t>
               </a:r>
@@ -29809,7 +30212,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -29894,7 +30298,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>脾气虚证</a:t>
               </a:r>
@@ -29979,7 +30384,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>尚规律</a:t>
               </a:r>
@@ -30064,7 +30470,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>无</a:t>
               </a:r>
@@ -30149,7 +30556,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>高血压</a:t>
               </a:r>
@@ -30234,7 +30642,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>糖尿病</a:t>
               </a:r>
@@ -30319,7 +30728,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>心脏病</a:t>
               </a:r>
@@ -30404,7 +30814,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>多囊卵巢综合征</a:t>
               </a:r>
@@ -30489,7 +30900,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>不详</a:t>
               </a:r>
@@ -30574,7 +30986,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>其他</a:t>
               </a:r>
@@ -30659,7 +31072,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>去氧孕烯炔雌片（妈富隆）</a:t>
               </a:r>
@@ -30744,9 +31158,30 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>炔雌醇环丙孕酮片（达英</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
-                <a:t>炔雌醇环丙孕酮片（达英-35）</a:t>
+                <a:t>-35</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>）</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -30829,7 +31264,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>屈螺酮炔雌醇片（优思明）</a:t>
               </a:r>
@@ -30914,7 +31350,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>左炔诺孕酮</a:t>
               </a:r>
@@ -30999,7 +31436,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>复方左炔诺孕酮</a:t>
               </a:r>
@@ -31084,10 +31522,27 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
+                </a:rPr>
+                <a:t>其它</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
                   <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
-                <a:t>其它 </a:t>
+                <a:t> </a:t>
               </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -31227,7 +31682,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Microsoft YaHei UI" charset="0"/>
+                  <a:latin typeface="DengXian" charset="-122"/>
+                  <a:ea typeface="DengXian" charset="-122"/>
                 </a:rPr>
                 <a:t>结核</a:t>
               </a:r>
@@ -31533,8 +31989,8 @@
   <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -31571,7 +32027,7 @@
         <v>700</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C3" s="78"/>
       <c r="D3" s="79"/>
@@ -31597,7 +32053,7 @@
         <v>701</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="79"/>
@@ -31610,7 +32066,7 @@
         <v>702</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -31623,7 +32079,7 @@
         <v>697</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="79"/>
@@ -31636,7 +32092,7 @@
         <v>698</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -31649,7 +32105,7 @@
         <v>630</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
@@ -31727,7 +32183,7 @@
         <v>426</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="83"/>
@@ -31827,7 +32283,7 @@
         <v>737</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="32"/>
@@ -31853,7 +32309,7 @@
         <v>434</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="42"/>
@@ -32004,7 +32460,7 @@
     </row>
     <row r="45" spans="1:5" ht="17">
       <c r="A45" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B45" s="114" t="s">
         <v>886</v>
@@ -32017,10 +32473,10 @@
     </row>
     <row r="46" spans="1:5" ht="17">
       <c r="A46" s="23" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="34"/>
@@ -32033,7 +32489,7 @@
         <v>682</v>
       </c>
       <c r="B47" s="106" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C47" s="84"/>
       <c r="D47" s="85"/>
@@ -32046,7 +32502,7 @@
         <v>685</v>
       </c>
       <c r="B48" s="112" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
@@ -32085,7 +32541,7 @@
         <v>438</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C51" s="84"/>
       <c r="D51" s="85"/>
@@ -32901,7 +33357,7 @@
         <v>416</v>
       </c>
       <c r="B120" s="111" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C120" s="50" t="s">
         <v>723</v>
@@ -32917,7 +33373,7 @@
         <v>709</v>
       </c>
       <c r="B121" s="112" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="91"/>
@@ -32993,7 +33449,7 @@
         <v>718</v>
       </c>
       <c r="B129" s="118" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C129" s="35"/>
       <c r="D129" s="91"/>
@@ -33008,7 +33464,7 @@
         <v>719</v>
       </c>
       <c r="B130" s="119" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C130" s="35"/>
       <c r="D130" s="91"/>
@@ -33022,7 +33478,7 @@
         <v>720</v>
       </c>
       <c r="B131" s="118" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C131" s="35"/>
       <c r="D131" s="91"/>
@@ -33035,7 +33491,7 @@
         <v>722</v>
       </c>
       <c r="B132" s="119" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="91"/>
@@ -33314,7 +33770,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="121" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B161" s="93">
         <v>10</v>
@@ -33390,7 +33846,7 @@
         <v>732</v>
       </c>
       <c r="B170" s="120" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C170" s="39"/>
       <c r="D170" s="94"/>
@@ -33415,9 +33871,7 @@
       <c r="A172" s="62" t="s">
         <v>752</v>
       </c>
-      <c r="B172" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B172" s="123"/>
       <c r="C172" s="39"/>
       <c r="D172" s="94"/>
       <c r="E172" s="75" t="s">
@@ -33428,9 +33882,7 @@
       <c r="A173" s="62" t="s">
         <v>753</v>
       </c>
-      <c r="B173" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B173" s="123"/>
       <c r="C173" s="39"/>
       <c r="D173" s="94"/>
       <c r="E173" s="75" t="s">
@@ -33441,9 +33893,7 @@
       <c r="A174" s="62" t="s">
         <v>754</v>
       </c>
-      <c r="B174" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B174" s="123"/>
       <c r="C174" s="39"/>
       <c r="D174" s="94"/>
       <c r="E174" s="75" t="s">
@@ -33454,9 +33904,7 @@
       <c r="A175" s="62" t="s">
         <v>755</v>
       </c>
-      <c r="B175" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B175" s="123"/>
       <c r="C175" s="39"/>
       <c r="D175" s="94"/>
       <c r="E175" s="75" t="s">
@@ -33467,9 +33915,7 @@
       <c r="A176" s="62" t="s">
         <v>756</v>
       </c>
-      <c r="B176" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B176" s="123"/>
       <c r="C176" s="39"/>
       <c r="D176" s="94"/>
       <c r="E176" s="75" t="s">
@@ -33480,22 +33926,18 @@
       <c r="A177" s="62" t="s">
         <v>757</v>
       </c>
-      <c r="B177" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B177" s="123"/>
       <c r="C177" s="39"/>
       <c r="D177" s="94"/>
       <c r="E177" s="75" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="62" t="s">
         <v>758</v>
       </c>
-      <c r="B178" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B178" s="123"/>
       <c r="C178" s="39"/>
       <c r="D178" s="94"/>
       <c r="E178" s="75" t="s">
@@ -33506,9 +33948,7 @@
       <c r="A179" s="62" t="s">
         <v>759</v>
       </c>
-      <c r="B179" s="123" t="s">
-        <v>912</v>
-      </c>
+      <c r="B179" s="123"/>
       <c r="C179" s="39"/>
       <c r="D179" s="94"/>
       <c r="E179" s="75" t="s">
@@ -33520,7 +33960,7 @@
         <v>733</v>
       </c>
       <c r="B180" s="123" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
@@ -33708,7 +34148,7 @@
         <v>901</v>
       </c>
       <c r="B205" s="124" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C205" s="96"/>
       <c r="D205" s="97"/>
@@ -45100,7 +45540,7 @@
         <v>627</v>
       </c>
       <c r="Y1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -45174,10 +45614,10 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
+        <v>913</v>
+      </c>
+      <c r="Z2" t="s">
         <v>914</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>915</v>
       </c>
       <c r="AA2" t="b">
         <v>1</v>
@@ -45236,10 +45676,10 @@
         <v>549</v>
       </c>
       <c r="Y3" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z3" t="s">
         <v>916</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -45301,10 +45741,10 @@
         <v>564</v>
       </c>
       <c r="Y4" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z4" t="s">
         <v>918</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>919</v>
       </c>
       <c r="AA4" t="b">
         <v>1</v>
@@ -45369,10 +45809,10 @@
         <v>579</v>
       </c>
       <c r="Y5" t="s">
+        <v>919</v>
+      </c>
+      <c r="Z5" t="s">
         <v>920</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>921</v>
       </c>
       <c r="AA5" t="b">
         <v>1</v>
@@ -45944,17 +46384,17 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="65" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="65" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="65" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -45985,57 +46425,57 @@
         <v>896</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="65" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="65" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="65" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="65" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="65" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="65" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="65" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="65" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="65" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="65" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -46050,32 +46490,32 @@
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="65" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="65" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="65" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="65" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="65" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="65" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -46188,27 +46628,27 @@
     </row>
     <row r="57" spans="1:9">
       <c r="B57" s="65" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="65" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="65" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="65" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="65" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16">
@@ -46241,17 +46681,17 @@
         <v>681</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="65" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" s="65" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -46264,22 +46704,22 @@
         <v>683</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" s="65" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" s="65" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" s="65" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -46292,17 +46732,17 @@
     </row>
     <row r="86" spans="1:2">
       <c r="B86" s="65" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" s="65" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" s="65" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -46312,12 +46752,12 @@
     </row>
     <row r="90" spans="1:2">
       <c r="B90" s="65" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" s="65" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -46496,7 +46936,7 @@
     <row r="132" spans="1:5">
       <c r="A132" s="73"/>
       <c r="B132" s="65" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -46516,13 +46956,13 @@
     <row r="136" spans="1:5">
       <c r="A136" s="73"/>
       <c r="B136" s="65" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="73"/>
       <c r="B137" s="65" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -46538,22 +46978,22 @@
     </row>
     <row r="141" spans="1:5">
       <c r="B141" s="65" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="B142" s="65" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="B143" s="65" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="B144" s="65" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="147" spans="1:2">

--- a/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
+++ b/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/work_handian/clinicalinvestv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4DC4D2-2347-E94C-AFFA-2286B0A698E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD62F7-5F51-B646-B096-764187D5A42A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="460" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="1200" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
-    <sheet name="一般情况" sheetId="10" state="hidden" r:id="rId2"/>
-    <sheet name="全身症状" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="其他" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="临床诊断" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="多选" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="一般情况" sheetId="10" r:id="rId2"/>
+    <sheet name="全身症状" sheetId="4" r:id="rId3"/>
+    <sheet name="其他" sheetId="7" r:id="rId4"/>
+    <sheet name="临床诊断" sheetId="6" r:id="rId5"/>
+    <sheet name="多选" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -3392,7 +3392,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>罗五四</t>
+    <t>罗阿萨德五四</t>
     <rPh sb="0" eb="1">
       <t>zhao</t>
     </rPh>
@@ -3984,7 +3984,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$174" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$174" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3996,19 +3996,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$176" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$176" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$177" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$177" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$178" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$178" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$179" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$179" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4016,7 +4016,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$181" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$181" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4364,7 +4364,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="其他!$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="其他!$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4376,11 +4376,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="其他!$F$2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="其他!$F$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="其他!$F$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="其他!$F$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp199.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4396,7 +4396,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp200.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="其他!$F$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="其他!$F$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5024,7 +5024,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$97" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$97" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5132,7 +5132,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$147" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$147" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5140,7 +5140,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$152" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$152" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31989,8 +31989,8 @@
   <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -33426,7 +33426,7 @@
         <v>710</v>
       </c>
       <c r="B127" s="117">
-        <v>2</v>
+        <v>212</v>
       </c>
       <c r="C127" s="49"/>
       <c r="D127" s="91"/>
@@ -33773,7 +33773,7 @@
         <v>973</v>
       </c>
       <c r="B161" s="93">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C161" s="92"/>
       <c r="D161" s="91"/>
@@ -44261,6 +44261,9 @@
       <c r="B97" s="7" t="s">
         <v>158</v>
       </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="15">
       <c r="A98" s="10" t="s">
@@ -44326,6 +44329,9 @@
       <c r="B104" s="7" t="s">
         <v>172</v>
       </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="15">
       <c r="A105" s="10" t="s">
@@ -44635,7 +44641,7 @@
         <v>227</v>
       </c>
       <c r="C147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15">
@@ -44659,6 +44665,9 @@
       <c r="B152" s="7" t="s">
         <v>231</v>
       </c>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="15">
       <c r="A153" s="11" t="s">
@@ -44814,6 +44823,9 @@
       <c r="B174" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="C174" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="175" spans="1:3" ht="15">
       <c r="A175" s="11" t="s">
@@ -44833,6 +44845,9 @@
       <c r="B176" s="7" t="s">
         <v>269</v>
       </c>
+      <c r="C176" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="15">
       <c r="A177" s="11" t="s">
@@ -44841,6 +44856,9 @@
       <c r="B177" s="7" t="s">
         <v>271</v>
       </c>
+      <c r="C177" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="15">
       <c r="A178" s="11" t="s">
@@ -44849,6 +44867,9 @@
       <c r="B178" s="7" t="s">
         <v>273</v>
       </c>
+      <c r="C178" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="15">
       <c r="A179" s="11" t="s">
@@ -44857,6 +44878,9 @@
       <c r="B179" s="7" t="s">
         <v>275</v>
       </c>
+      <c r="C179" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:3" ht="15">
       <c r="A180" s="11" t="s">
@@ -44877,7 +44901,7 @@
         <v>279</v>
       </c>
       <c r="C181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15">
@@ -45560,7 +45584,7 @@
         <v>524</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>525</v>
@@ -45630,6 +45654,9 @@
       <c r="B3" t="s">
         <v>535</v>
       </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>536</v>
       </c>
@@ -45637,7 +45664,7 @@
         <v>537</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>538</v>
@@ -45826,7 +45853,7 @@
         <v>581</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>582</v>

--- a/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
+++ b/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/work_handian/clinicalinvestv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD62F7-5F51-B646-B096-764187D5A42A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC127C13-0B1C-4B4C-B0C7-CA3F92229BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="1200" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
-    <sheet name="一般情况" sheetId="10" r:id="rId2"/>
-    <sheet name="全身症状" sheetId="4" r:id="rId3"/>
-    <sheet name="其他" sheetId="7" r:id="rId4"/>
-    <sheet name="临床诊断" sheetId="6" r:id="rId5"/>
-    <sheet name="多选" sheetId="5" r:id="rId6"/>
+    <sheet name="一般情况" sheetId="10" state="hidden" r:id="rId2"/>
+    <sheet name="全身症状" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="其他" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="临床诊断" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="多选" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -3377,10 +3377,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>201812191219</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>北京中西医医院</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3392,7 +3388,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>罗阿萨德五四</t>
+    <t>201812191211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里四</t>
     <rPh sb="0" eb="1">
       <t>zhao</t>
     </rPh>
@@ -4016,7 +4016,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$181" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$181" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4340,7 +4340,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp189.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="其他!$AA$2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="其他!$AA$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4352,11 +4352,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="其他!$AA$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="其他!$AA$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="其他!$AA$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="其他!$AA$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4552,7 +4552,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="临床诊断!$C$2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="临床诊断!$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4908,7 +4908,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4952,7 +4952,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4996,7 +4996,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5092,7 +5092,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="全身症状!$C$135" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="全身症状!$C$135" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5613,8 +5613,8 @@
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
@@ -6323,8 +6323,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1892300</xdr:colOff>
-          <xdr:row>66</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8129,8 +8129,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1460500</xdr:colOff>
-          <xdr:row>91</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11503,8 +11503,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1701800</xdr:colOff>
-          <xdr:row>80</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>81</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15029,8 +15029,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>88</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>89</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15631,8 +15631,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1231900</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15887,7 +15887,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -16147,8 +16147,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>977900</xdr:colOff>
-          <xdr:row>91</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16233,8 +16233,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1003300</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>93</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16491,8 +16491,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1155700</xdr:colOff>
-          <xdr:row>95</xdr:row>
-          <xdr:rowOff>215900</xdr:rowOff>
+          <xdr:row>96</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17865,8 +17865,8 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>177800</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
@@ -18037,7 +18037,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>850900</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -18123,7 +18123,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -18209,7 +18209,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>406400</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -18295,7 +18295,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>774700</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -18741,7 +18741,7 @@
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>584200</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
@@ -18999,7 +18999,7 @@
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>88900</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
@@ -19087,8 +19087,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2527300</xdr:colOff>
-          <xdr:row>72</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>73</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19171,7 +19171,7 @@
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>317500</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
@@ -19257,7 +19257,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>698500</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -19429,7 +19429,7 @@
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -19515,7 +19515,7 @@
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -19687,7 +19687,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>736600</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -19773,7 +19773,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>584200</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -19859,7 +19859,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>762000</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -20203,7 +20203,7 @@
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>88</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -20375,7 +20375,7 @@
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>90</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20461,7 +20461,7 @@
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>91</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -20547,7 +20547,7 @@
           <xdr:rowOff>215900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>92</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20633,7 +20633,7 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>215900</xdr:colOff>
           <xdr:row>93</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20719,7 +20719,7 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>94</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20805,7 +20805,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>330200</xdr:colOff>
           <xdr:row>95</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
@@ -20891,7 +20891,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>749300</xdr:colOff>
           <xdr:row>96</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20977,7 +20977,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>97</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
@@ -21321,7 +21321,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>101</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -22395,8 +22395,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1993900</xdr:colOff>
-          <xdr:row>125</xdr:row>
-          <xdr:rowOff>203200</xdr:rowOff>
+          <xdr:row>126</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25661,8 +25661,8 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>2286000</xdr:colOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>185</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -31989,8 +31989,8 @@
   <dimension ref="A1:I751"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -31999,7 +31999,7 @@
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" style="20" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="74" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="74" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" style="20" customWidth="1"/>
@@ -32027,7 +32027,7 @@
         <v>700</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="C3" s="78"/>
       <c r="D3" s="79"/>
@@ -32040,7 +32040,7 @@
         <v>699</v>
       </c>
       <c r="B4" s="107">
-        <v>43445</v>
+        <v>43384</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
@@ -32053,7 +32053,7 @@
         <v>701</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="79"/>
@@ -32066,7 +32066,7 @@
         <v>702</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -32417,7 +32417,7 @@
         <v>679</v>
       </c>
       <c r="B41" s="77">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C41" s="84"/>
       <c r="D41" s="85"/>
@@ -39172,7 +39172,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -39678,8 +39678,8 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>177800</xdr:colOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>139700</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
@@ -39722,7 +39722,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>850900</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -39744,7 +39744,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -39766,7 +39766,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -39788,7 +39788,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>63</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -39898,7 +39898,7 @@
                     <xdr:rowOff>88900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>584200</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>165100</xdr:rowOff>
@@ -39964,7 +39964,7 @@
                     <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>71</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
@@ -40008,7 +40008,7 @@
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
@@ -40030,7 +40030,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>698500</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -40074,7 +40074,7 @@
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -40096,7 +40096,7 @@
                     <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -40140,7 +40140,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -40162,7 +40162,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>584200</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -40184,7 +40184,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>762000</xdr:colOff>
                     <xdr:row>83</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -40272,7 +40272,7 @@
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>88</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -40316,7 +40316,7 @@
                     <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>90</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40338,7 +40338,7 @@
                     <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>91</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -40360,7 +40360,7 @@
                     <xdr:rowOff>215900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>92</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40382,7 +40382,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>93</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40404,7 +40404,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>94</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40426,7 +40426,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>330200</xdr:colOff>
                     <xdr:row>95</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
@@ -40448,7 +40448,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>96</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40470,7 +40470,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>97</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
@@ -40558,7 +40558,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>4</xdr:col>
+                    <xdr:col>5</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>101</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -43614,7 +43614,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
@@ -43625,7 +43625,7 @@
         <v>44</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
@@ -43636,7 +43636,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
@@ -44545,7 +44545,7 @@
         <v>209</v>
       </c>
       <c r="C135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15">
@@ -44901,7 +44901,7 @@
         <v>279</v>
       </c>
       <c r="C181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15">
@@ -45644,7 +45644,7 @@
         <v>914</v>
       </c>
       <c r="AA2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -45708,6 +45708,9 @@
       <c r="Z3" t="s">
         <v>916</v>
       </c>
+      <c r="AA3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="6" t="s">
@@ -45774,7 +45777,7 @@
         <v>918</v>
       </c>
       <c r="AA4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -45842,7 +45845,7 @@
         <v>920</v>
       </c>
       <c r="AA5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -46094,6 +46097,9 @@
       </c>
       <c r="B2" t="s">
         <v>445</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>446</v>

--- a/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
+++ b/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/work_handian/clinicalinvestv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC127C13-0B1C-4B4C-B0C7-CA3F92229BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB9BB89-6311-6B4A-9938-DCC26414F647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1200" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1760" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
@@ -2645,9 +2645,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
@@ -3179,9 +3176,6 @@
   <si>
     <t>18767235388</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主任医师</t>
   </si>
   <si>
     <t>副主任医师</t>
@@ -3399,6 +3393,14 @@
     <rPh sb="1" eb="2">
       <t>si</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主任医师</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5613,8 +5615,8 @@
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
@@ -6323,8 +6325,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1892300</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8129,8 +8131,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1460500</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -11503,8 +11505,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1701800</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>80</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15029,8 +15031,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1041400</xdr:colOff>
-          <xdr:row>89</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>88</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15631,8 +15633,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1231900</xdr:colOff>
-          <xdr:row>108</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>107</xdr:row>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -15887,7 +15889,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>25400</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -16147,8 +16149,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>977900</xdr:colOff>
-          <xdr:row>92</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>91</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16233,8 +16235,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1003300</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>92</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -16491,8 +16493,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1155700</xdr:colOff>
-          <xdr:row>96</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -17865,8 +17867,8 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>177800</xdr:colOff>
           <xdr:row>58</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
@@ -18037,7 +18039,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>850900</xdr:colOff>
           <xdr:row>60</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -18123,7 +18125,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>342900</xdr:colOff>
           <xdr:row>61</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -18209,7 +18211,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>406400</xdr:colOff>
           <xdr:row>62</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -18295,7 +18297,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>774700</xdr:colOff>
           <xdr:row>63</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -18741,7 +18743,7 @@
           <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>584200</xdr:colOff>
           <xdr:row>68</xdr:row>
           <xdr:rowOff>165100</xdr:rowOff>
@@ -18999,7 +19001,7 @@
           <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>88900</xdr:colOff>
           <xdr:row>71</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
@@ -19087,8 +19089,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>2527300</xdr:colOff>
-          <xdr:row>73</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>72</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -19171,7 +19173,7 @@
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>317500</xdr:colOff>
           <xdr:row>74</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
@@ -19257,7 +19259,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>698500</xdr:colOff>
           <xdr:row>75</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -19429,7 +19431,7 @@
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>444500</xdr:colOff>
           <xdr:row>77</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -19515,7 +19517,7 @@
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>79</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -19687,7 +19689,7 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>736600</xdr:colOff>
           <xdr:row>81</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -19773,7 +19775,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>584200</xdr:colOff>
           <xdr:row>82</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
@@ -19859,7 +19861,7 @@
           <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>762000</xdr:colOff>
           <xdr:row>83</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -20203,7 +20205,7 @@
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>88</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -20375,7 +20377,7 @@
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>90</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20461,7 +20463,7 @@
           <xdr:rowOff>203200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>12700</xdr:colOff>
           <xdr:row>91</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
@@ -20547,7 +20549,7 @@
           <xdr:rowOff>215900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>393700</xdr:colOff>
           <xdr:row>92</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20633,7 +20635,7 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>215900</xdr:colOff>
           <xdr:row>93</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20719,7 +20721,7 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>94</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20805,7 +20807,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>330200</xdr:colOff>
           <xdr:row>95</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
@@ -20891,7 +20893,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>749300</xdr:colOff>
           <xdr:row>96</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -20977,7 +20979,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>97</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
@@ -21321,7 +21323,7 @@
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>368300</xdr:colOff>
           <xdr:row>101</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
@@ -22395,8 +22397,8 @@
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>1993900</xdr:colOff>
-          <xdr:row>126</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>125</xdr:row>
+          <xdr:rowOff>203200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25661,8 +25663,8 @@
           <xdr:rowOff>177800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2286000</xdr:colOff>
           <xdr:row>185</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -31990,7 +31992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -31999,7 +32001,7 @@
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
     <col min="3" max="3" width="33" style="20" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="74" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="74" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" style="20" customWidth="1"/>
@@ -32008,7 +32010,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="116" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
@@ -32027,7 +32029,7 @@
         <v>700</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C3" s="78"/>
       <c r="D3" s="79"/>
@@ -32053,7 +32055,7 @@
         <v>701</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="79"/>
@@ -32066,7 +32068,7 @@
         <v>702</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
@@ -32079,7 +32081,7 @@
         <v>697</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="79"/>
@@ -32092,7 +32094,7 @@
         <v>698</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -32105,7 +32107,7 @@
         <v>630</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>924</v>
+        <v>979</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
@@ -32123,7 +32125,7 @@
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="75" t="s">
-        <v>776</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17">
@@ -32136,7 +32138,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="79"/>
       <c r="E11" s="75" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17">
@@ -32149,7 +32151,7 @@
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="75" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17">
@@ -32157,12 +32159,12 @@
         <v>736</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C13" s="82"/>
       <c r="D13" s="83"/>
       <c r="E13" s="75" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17">
@@ -32170,12 +32172,12 @@
         <v>734</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
       <c r="E14" s="75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17">
@@ -32183,12 +32185,12 @@
         <v>426</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="83"/>
       <c r="E15" s="75" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -32201,7 +32203,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="75" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -32283,12 +32285,12 @@
         <v>737</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="32"/>
       <c r="E25" s="75" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17">
@@ -32296,12 +32298,12 @@
         <v>433</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C26" s="84"/>
       <c r="D26" s="85"/>
       <c r="E26" s="75" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17">
@@ -32309,12 +32311,12 @@
         <v>434</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="42"/>
       <c r="E27" s="75" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17">
@@ -32322,12 +32324,12 @@
         <v>632</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="87"/>
       <c r="E28" s="75" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17">
@@ -32338,7 +32340,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="75" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17">
@@ -32422,7 +32424,7 @@
       <c r="C41" s="84"/>
       <c r="D41" s="85"/>
       <c r="E41" s="75" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17">
@@ -32442,12 +32444,12 @@
       <c r="C43" s="47"/>
       <c r="D43" s="48"/>
       <c r="E43" s="74" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="46" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B44" s="47">
         <v>18</v>
@@ -32455,33 +32457,33 @@
       <c r="C44" s="47"/>
       <c r="D44" s="48"/>
       <c r="E44" s="75" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17">
       <c r="A45" s="35" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B45" s="114" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="40"/>
       <c r="E45" s="75" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17">
       <c r="A46" s="23" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="34"/>
       <c r="E46" s="75" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17">
@@ -32489,12 +32491,12 @@
         <v>682</v>
       </c>
       <c r="B47" s="106" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C47" s="84"/>
       <c r="D47" s="85"/>
       <c r="E47" s="75" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17">
@@ -32502,12 +32504,12 @@
         <v>685</v>
       </c>
       <c r="B48" s="112" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
       <c r="E48" s="75" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17">
@@ -32515,12 +32517,12 @@
         <v>436</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C49" s="82"/>
       <c r="D49" s="83"/>
       <c r="E49" s="75" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17">
@@ -32528,12 +32530,12 @@
         <v>437</v>
       </c>
       <c r="B50" s="112" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="75" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17">
@@ -32541,12 +32543,12 @@
         <v>438</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C51" s="84"/>
       <c r="D51" s="85"/>
       <c r="E51" s="75" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -33317,7 +33319,7 @@
       <c r="C117" s="49"/>
       <c r="D117" s="91"/>
       <c r="E117" s="75" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -33332,7 +33334,7 @@
       <c r="C118" s="49"/>
       <c r="D118" s="91"/>
       <c r="E118" s="75" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -33347,7 +33349,7 @@
       <c r="C119" s="49"/>
       <c r="D119" s="91"/>
       <c r="E119" s="75" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -33357,14 +33359,14 @@
         <v>416</v>
       </c>
       <c r="B120" s="111" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C120" s="50" t="s">
         <v>723</v>
       </c>
       <c r="D120" s="88"/>
       <c r="E120" s="75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -33373,12 +33375,12 @@
         <v>709</v>
       </c>
       <c r="B121" s="112" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="91"/>
       <c r="E121" s="75" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -33431,7 +33433,7 @@
       <c r="C127" s="49"/>
       <c r="D127" s="91"/>
       <c r="E127" s="75" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17">
@@ -33449,12 +33451,12 @@
         <v>718</v>
       </c>
       <c r="B129" s="118" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C129" s="35"/>
       <c r="D129" s="91"/>
       <c r="E129" s="75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="5"/>
@@ -33464,12 +33466,12 @@
         <v>719</v>
       </c>
       <c r="B130" s="119" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C130" s="35"/>
       <c r="D130" s="91"/>
       <c r="E130" s="75" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G130" s="5"/>
     </row>
@@ -33478,12 +33480,12 @@
         <v>720</v>
       </c>
       <c r="B131" s="118" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C131" s="35"/>
       <c r="D131" s="91"/>
       <c r="E131" s="75" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -33491,12 +33493,12 @@
         <v>722</v>
       </c>
       <c r="B132" s="119" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="91"/>
       <c r="E132" s="75" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="17">
@@ -33510,7 +33512,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="52" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B134" s="120" t="s">
         <v>597</v>
@@ -33518,12 +33520,12 @@
       <c r="C134" s="35"/>
       <c r="D134" s="91"/>
       <c r="E134" s="75" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="52" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B135" s="120" t="s">
         <v>597</v>
@@ -33531,7 +33533,7 @@
       <c r="C135" s="35"/>
       <c r="D135" s="91"/>
       <c r="E135" s="75" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17">
@@ -33540,7 +33542,7 @@
       </c>
       <c r="B136" s="34"/>
       <c r="E136" s="75" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17">
@@ -33614,7 +33616,7 @@
       <c r="C145" s="39"/>
       <c r="D145" s="91"/>
       <c r="E145" s="75" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -33627,7 +33629,7 @@
       <c r="C146" s="92"/>
       <c r="D146" s="91"/>
       <c r="E146" s="75" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -33640,7 +33642,7 @@
       <c r="C147" s="92"/>
       <c r="D147" s="91"/>
       <c r="E147" s="75" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -33653,7 +33655,7 @@
       <c r="C148" s="92"/>
       <c r="D148" s="91"/>
       <c r="E148" s="75" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -33664,7 +33666,7 @@
       <c r="C149" s="92"/>
       <c r="D149" s="91"/>
       <c r="E149" s="75" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -33675,7 +33677,7 @@
       <c r="C150" s="92"/>
       <c r="D150" s="91"/>
       <c r="E150" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -33686,7 +33688,7 @@
       <c r="C151" s="92"/>
       <c r="D151" s="91"/>
       <c r="E151" s="75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -33697,7 +33699,7 @@
       <c r="C152" s="92"/>
       <c r="D152" s="91"/>
       <c r="E152" s="75" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -33708,7 +33710,7 @@
       <c r="C153" s="92"/>
       <c r="D153" s="91"/>
       <c r="E153" s="75" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -33719,7 +33721,7 @@
       <c r="C154" s="92"/>
       <c r="D154" s="91"/>
       <c r="E154" s="75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -33770,7 +33772,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="121" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B161" s="93">
         <v>21</v>
@@ -33778,7 +33780,7 @@
       <c r="C161" s="92"/>
       <c r="D161" s="91"/>
       <c r="E161" s="75" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -33846,12 +33848,12 @@
         <v>732</v>
       </c>
       <c r="B170" s="120" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C170" s="39"/>
       <c r="D170" s="94"/>
       <c r="E170" s="75" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -33859,12 +33861,12 @@
         <v>751</v>
       </c>
       <c r="B171" s="122" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C171" s="39"/>
       <c r="D171" s="94"/>
       <c r="E171" s="75" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -33875,7 +33877,7 @@
       <c r="C172" s="39"/>
       <c r="D172" s="94"/>
       <c r="E172" s="75" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -33886,7 +33888,7 @@
       <c r="C173" s="39"/>
       <c r="D173" s="94"/>
       <c r="E173" s="75" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -33897,7 +33899,7 @@
       <c r="C174" s="39"/>
       <c r="D174" s="94"/>
       <c r="E174" s="75" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -33908,7 +33910,7 @@
       <c r="C175" s="39"/>
       <c r="D175" s="94"/>
       <c r="E175" s="75" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -33919,7 +33921,7 @@
       <c r="C176" s="39"/>
       <c r="D176" s="94"/>
       <c r="E176" s="75" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -33930,7 +33932,7 @@
       <c r="C177" s="39"/>
       <c r="D177" s="94"/>
       <c r="E177" s="75" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -33941,7 +33943,7 @@
       <c r="C178" s="39"/>
       <c r="D178" s="94"/>
       <c r="E178" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -33952,7 +33954,7 @@
       <c r="C179" s="39"/>
       <c r="D179" s="94"/>
       <c r="E179" s="75" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17">
@@ -33960,12 +33962,12 @@
         <v>733</v>
       </c>
       <c r="B180" s="123" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
       <c r="E180" s="75" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17">
@@ -34145,15 +34147,15 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="49" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B205" s="124" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C205" s="96"/>
       <c r="D205" s="97"/>
       <c r="E205" s="75" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -36421,9 +36423,10 @@
       <formula>NOT($B$43)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="其它疾病" prompt="如果有其它疾病，请自行输入" sqref="B136" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" errorTitle="错误" error="只能从下拉框选择！" promptTitle="医生职称" prompt="请从下拉框选择职称" sqref="C9" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="只能从下拉列表选择！" promptTitle="医生职称" prompt="请从下拉框选择" sqref="B9" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39172,7 +39175,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>55</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -39678,8 +39681,8 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>177800</xdr:colOff>
                     <xdr:row>58</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
                   </to>
@@ -39722,7 +39725,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>850900</xdr:colOff>
                     <xdr:row>60</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -39744,7 +39747,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>342900</xdr:colOff>
                     <xdr:row>61</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -39766,7 +39769,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>406400</xdr:colOff>
                     <xdr:row>62</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -39788,7 +39791,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>774700</xdr:colOff>
                     <xdr:row>63</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -39898,7 +39901,7 @@
                     <xdr:rowOff>88900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>584200</xdr:colOff>
                     <xdr:row>68</xdr:row>
                     <xdr:rowOff>165100</xdr:rowOff>
@@ -39964,7 +39967,7 @@
                     <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>88900</xdr:colOff>
                     <xdr:row>71</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
@@ -40008,7 +40011,7 @@
                     <xdr:rowOff>152400</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>74</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
@@ -40030,7 +40033,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>698500</xdr:colOff>
                     <xdr:row>75</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -40074,7 +40077,7 @@
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>444500</xdr:colOff>
                     <xdr:row>77</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -40096,7 +40099,7 @@
                     <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>79</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -40140,7 +40143,7 @@
                     <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>736600</xdr:colOff>
                     <xdr:row>81</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -40162,7 +40165,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>584200</xdr:colOff>
                     <xdr:row>82</xdr:row>
                     <xdr:rowOff>25400</xdr:rowOff>
@@ -40184,7 +40187,7 @@
                     <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>762000</xdr:colOff>
                     <xdr:row>83</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
@@ -40272,7 +40275,7 @@
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>88</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -40316,7 +40319,7 @@
                     <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>90</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40338,7 +40341,7 @@
                     <xdr:rowOff>203200</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>91</xdr:row>
                     <xdr:rowOff>50800</xdr:rowOff>
@@ -40360,7 +40363,7 @@
                     <xdr:rowOff>215900</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>393700</xdr:colOff>
                     <xdr:row>92</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40382,7 +40385,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>93</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40404,7 +40407,7 @@
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>94</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40426,7 +40429,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>330200</xdr:colOff>
                     <xdr:row>95</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
@@ -40448,7 +40451,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>749300</xdr:colOff>
                     <xdr:row>96</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -40470,7 +40473,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>97</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
@@ -40558,7 +40561,7 @@
                     <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>4</xdr:col>
                     <xdr:colOff>368300</xdr:colOff>
                     <xdr:row>101</xdr:row>
                     <xdr:rowOff>63500</xdr:rowOff>
@@ -43191,13 +43194,7 @@
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="26">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="只能从下拉列表选择！" promptTitle="医生职称" prompt="请从下拉框选择" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>多选!$B$1:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="25">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="只能从下拉列表选择！" promptTitle="血型" prompt="请从下拉框选择" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>多选!$B$5:$B$9</xm:f>
@@ -45564,7 +45561,7 @@
         <v>627</v>
       </c>
       <c r="Y1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -45638,10 +45635,10 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
+        <v>912</v>
+      </c>
+      <c r="Z2" t="s">
         <v>913</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>914</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
@@ -45703,10 +45700,10 @@
         <v>549</v>
       </c>
       <c r="Y3" t="s">
+        <v>914</v>
+      </c>
+      <c r="Z3" t="s">
         <v>915</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>916</v>
       </c>
       <c r="AA3" t="b">
         <v>0</v>
@@ -45771,10 +45768,10 @@
         <v>564</v>
       </c>
       <c r="Y4" t="s">
+        <v>916</v>
+      </c>
+      <c r="Z4" t="s">
         <v>917</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>918</v>
       </c>
       <c r="AA4" t="b">
         <v>0</v>
@@ -45839,10 +45836,10 @@
         <v>579</v>
       </c>
       <c r="Y5" t="s">
+        <v>918</v>
+      </c>
+      <c r="Z5" t="s">
         <v>919</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>920</v>
       </c>
       <c r="AA5" t="b">
         <v>0</v>
@@ -46026,10 +46023,10 @@
     </row>
     <row r="16" spans="1:27">
       <c r="J16" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="K16" t="s">
         <v>889</v>
-      </c>
-      <c r="K16" t="s">
-        <v>890</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -46417,22 +46414,22 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="65" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="65" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="65" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="65" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>427</v>
@@ -46455,60 +46452,60 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="65" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="65" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="65" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="65" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="65" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="65" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="65" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="65" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="65" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="65" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="65" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -46518,42 +46515,42 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="65" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="65" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="65" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="65" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="65" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="65" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="65" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="65" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>673</v>
@@ -46586,7 +46583,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="65" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>706</v>
@@ -46661,27 +46658,27 @@
     </row>
     <row r="57" spans="1:9">
       <c r="B57" s="65" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="65" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="65" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="65" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="65" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16">
@@ -46714,17 +46711,17 @@
         <v>681</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="65" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" s="65" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -46737,22 +46734,22 @@
         <v>683</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" s="65" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" s="65" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" s="65" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -46765,17 +46762,17 @@
     </row>
     <row r="86" spans="1:2">
       <c r="B86" s="65" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" s="65" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" s="65" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -46785,22 +46782,22 @@
     </row>
     <row r="90" spans="1:2">
       <c r="B90" s="65" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" s="65" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" s="65" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="72" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B94" s="65" t="s">
         <v>686</v>
@@ -46818,7 +46815,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B98" s="65" t="s">
         <v>693</v>
@@ -46841,7 +46838,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="65" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B104" s="65" t="s">
         <v>689</v>
@@ -46969,7 +46966,7 @@
     <row r="132" spans="1:5">
       <c r="A132" s="73"/>
       <c r="B132" s="65" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -46989,13 +46986,13 @@
     <row r="136" spans="1:5">
       <c r="A136" s="73"/>
       <c r="B136" s="65" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="73"/>
       <c r="B137" s="65" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -47011,22 +47008,22 @@
     </row>
     <row r="141" spans="1:5">
       <c r="B141" s="65" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="B142" s="65" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="B143" s="65" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="B144" s="65" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -47075,290 +47072,290 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="65" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B161" s="65" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="B162" s="65" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="B163" s="65" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" s="65" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="B165" s="65" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" s="65" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" s="65" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="B168" s="65" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="B169" s="65" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" s="65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="B171" s="65" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" s="65" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="B173" s="65" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="B174" s="65" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="B175" s="65" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" s="65" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="65" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="65" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="65" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="65" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="65" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="65" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="65" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="65" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="65" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="65" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="65" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="65" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="65" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="65" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="65" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="65" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="65" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="65" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="65" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="65" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="65" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="65" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="65" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="65" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="65" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="65" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
+++ b/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/work_handian/clinicalinvestv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB9BB89-6311-6B4A-9938-DCC26414F647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A3C25-AFF6-2A43-89FD-6BF1B6ABC42B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1760" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3382,10 +3382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>201812191211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>里四</t>
     <rPh sb="0" eb="1">
       <t>zhao</t>
@@ -3401,6 +3397,10 @@
   </si>
   <si>
     <t>主任医师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101121211</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -31992,7 +31992,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -32029,7 +32029,7 @@
         <v>700</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C3" s="78"/>
       <c r="D3" s="79"/>
@@ -32081,7 +32081,7 @@
         <v>697</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="79"/>
@@ -32107,7 +32107,7 @@
         <v>630</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
@@ -32125,7 +32125,7 @@
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="75" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17">

--- a/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
+++ b/Prj001排卵障碍性异常子宫出血问卷_模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wo/Desktop/work_handian/clinicalinvestv2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A3C25-AFF6-2A43-89FD-6BF1B6ABC42B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D8B518-1A8D-2342-8770-88FEACA5D7BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1760" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1260" windowWidth="23140" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问卷 " sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="977">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2624,9 +2624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>serial</t>
-  </si>
-  <si>
     <t>recdate</t>
   </si>
   <si>
@@ -3171,10 +3168,6 @@
   </si>
   <si>
     <t>accessory_jichutiwen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18767235388</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3371,10 +3364,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>北京中西医医院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">敏 </t>
     <rPh sb="0" eb="1">
       <t>li</t>
@@ -3382,16 +3371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>里四</t>
-    <rPh sb="0" eb="1">
-      <t>zhao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>si</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>age</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3401,6 +3380,10 @@
   </si>
   <si>
     <t>101121211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serial</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -31992,7 +31975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -32010,7 +31993,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="116" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17">
@@ -32029,12 +32012,12 @@
         <v>700</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C3" s="78"/>
       <c r="D3" s="79"/>
       <c r="E3" s="75" t="s">
-        <v>769</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
@@ -32047,20 +32030,18 @@
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
       <c r="E4" s="75" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17">
       <c r="A5" s="76" t="s">
         <v>701</v>
       </c>
-      <c r="B5" s="106" t="s">
-        <v>974</v>
-      </c>
+      <c r="B5" s="106"/>
       <c r="C5" s="78"/>
       <c r="D5" s="79"/>
       <c r="E5" s="75" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17">
@@ -32068,38 +32049,34 @@
         <v>702</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
       <c r="E6" s="75" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17">
       <c r="A7" s="76" t="s">
         <v>697</v>
       </c>
-      <c r="B7" s="106" t="s">
-        <v>976</v>
-      </c>
+      <c r="B7" s="106"/>
       <c r="C7" s="78"/>
       <c r="D7" s="79"/>
       <c r="E7" s="74" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17">
       <c r="A8" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="B8" s="109" t="s">
-        <v>922</v>
-      </c>
+      <c r="B8" s="109"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="75" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32107,12 +32084,12 @@
         <v>630</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
       <c r="E9" s="75" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17">
@@ -32125,7 +32102,7 @@
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="75" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17">
@@ -32138,7 +32115,7 @@
       <c r="C11" s="78"/>
       <c r="D11" s="79"/>
       <c r="E11" s="75" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17">
@@ -32151,7 +32128,7 @@
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="75" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17">
@@ -32159,12 +32136,12 @@
         <v>736</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C13" s="82"/>
       <c r="D13" s="83"/>
       <c r="E13" s="75" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17">
@@ -32172,12 +32149,12 @@
         <v>734</v>
       </c>
       <c r="B14" s="108" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
       <c r="E14" s="75" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17">
@@ -32185,12 +32162,12 @@
         <v>426</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="83"/>
       <c r="E15" s="75" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -32203,7 +32180,7 @@
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="75" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -32285,12 +32262,12 @@
         <v>737</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="32"/>
       <c r="E25" s="75" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17">
@@ -32298,12 +32275,12 @@
         <v>433</v>
       </c>
       <c r="B26" s="106" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C26" s="84"/>
       <c r="D26" s="85"/>
       <c r="E26" s="75" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17">
@@ -32311,12 +32288,12 @@
         <v>434</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="42"/>
       <c r="E27" s="75" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17">
@@ -32324,12 +32301,12 @@
         <v>632</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C28" s="86"/>
       <c r="D28" s="87"/>
       <c r="E28" s="75" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17">
@@ -32340,7 +32317,7 @@
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="75" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17">
@@ -32424,7 +32401,7 @@
       <c r="C41" s="84"/>
       <c r="D41" s="85"/>
       <c r="E41" s="75" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17">
@@ -32444,12 +32421,12 @@
       <c r="C43" s="47"/>
       <c r="D43" s="48"/>
       <c r="E43" s="74" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="46" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B44" s="47">
         <v>18</v>
@@ -32457,33 +32434,33 @@
       <c r="C44" s="47"/>
       <c r="D44" s="48"/>
       <c r="E44" s="75" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17">
       <c r="A45" s="35" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B45" s="114" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C45" s="39"/>
       <c r="D45" s="40"/>
       <c r="E45" s="75" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17">
       <c r="A46" s="23" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="34"/>
       <c r="E46" s="75" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17">
@@ -32491,12 +32468,12 @@
         <v>682</v>
       </c>
       <c r="B47" s="106" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C47" s="84"/>
       <c r="D47" s="85"/>
       <c r="E47" s="75" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17">
@@ -32504,12 +32481,12 @@
         <v>685</v>
       </c>
       <c r="B48" s="112" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
       <c r="E48" s="75" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17">
@@ -32517,12 +32494,12 @@
         <v>436</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C49" s="82"/>
       <c r="D49" s="83"/>
       <c r="E49" s="75" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="17">
@@ -32530,12 +32507,12 @@
         <v>437</v>
       </c>
       <c r="B50" s="112" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="75" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17">
@@ -32543,12 +32520,12 @@
         <v>438</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C51" s="84"/>
       <c r="D51" s="85"/>
       <c r="E51" s="75" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -33319,7 +33296,7 @@
       <c r="C117" s="49"/>
       <c r="D117" s="91"/>
       <c r="E117" s="75" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -33334,7 +33311,7 @@
       <c r="C118" s="49"/>
       <c r="D118" s="91"/>
       <c r="E118" s="75" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -33349,7 +33326,7 @@
       <c r="C119" s="49"/>
       <c r="D119" s="91"/>
       <c r="E119" s="75" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -33359,14 +33336,14 @@
         <v>416</v>
       </c>
       <c r="B120" s="111" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C120" s="50" t="s">
         <v>723</v>
       </c>
       <c r="D120" s="88"/>
       <c r="E120" s="75" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -33375,12 +33352,12 @@
         <v>709</v>
       </c>
       <c r="B121" s="112" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C121" s="49"/>
       <c r="D121" s="91"/>
       <c r="E121" s="75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -33433,7 +33410,7 @@
       <c r="C127" s="49"/>
       <c r="D127" s="91"/>
       <c r="E127" s="75" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="17">
@@ -33451,12 +33428,12 @@
         <v>718</v>
       </c>
       <c r="B129" s="118" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C129" s="35"/>
       <c r="D129" s="91"/>
       <c r="E129" s="75" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="5"/>
@@ -33466,12 +33443,12 @@
         <v>719</v>
       </c>
       <c r="B130" s="119" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C130" s="35"/>
       <c r="D130" s="91"/>
       <c r="E130" s="75" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G130" s="5"/>
     </row>
@@ -33480,12 +33457,12 @@
         <v>720</v>
       </c>
       <c r="B131" s="118" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C131" s="35"/>
       <c r="D131" s="91"/>
       <c r="E131" s="75" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -33493,12 +33470,12 @@
         <v>722</v>
       </c>
       <c r="B132" s="119" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C132" s="35"/>
       <c r="D132" s="91"/>
       <c r="E132" s="75" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="17">
@@ -33512,7 +33489,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="52" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B134" s="120" t="s">
         <v>597</v>
@@ -33520,12 +33497,12 @@
       <c r="C134" s="35"/>
       <c r="D134" s="91"/>
       <c r="E134" s="75" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="52" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B135" s="120" t="s">
         <v>597</v>
@@ -33533,7 +33510,7 @@
       <c r="C135" s="35"/>
       <c r="D135" s="91"/>
       <c r="E135" s="75" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="17">
@@ -33542,7 +33519,7 @@
       </c>
       <c r="B136" s="34"/>
       <c r="E136" s="75" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="17">
@@ -33616,7 +33593,7 @@
       <c r="C145" s="39"/>
       <c r="D145" s="91"/>
       <c r="E145" s="75" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -33629,7 +33606,7 @@
       <c r="C146" s="92"/>
       <c r="D146" s="91"/>
       <c r="E146" s="75" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -33642,7 +33619,7 @@
       <c r="C147" s="92"/>
       <c r="D147" s="91"/>
       <c r="E147" s="75" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -33655,7 +33632,7 @@
       <c r="C148" s="92"/>
       <c r="D148" s="91"/>
       <c r="E148" s="75" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -33666,7 +33643,7 @@
       <c r="C149" s="92"/>
       <c r="D149" s="91"/>
       <c r="E149" s="75" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -33677,7 +33654,7 @@
       <c r="C150" s="92"/>
       <c r="D150" s="91"/>
       <c r="E150" s="75" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -33688,7 +33665,7 @@
       <c r="C151" s="92"/>
       <c r="D151" s="91"/>
       <c r="E151" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -33699,7 +33676,7 @@
       <c r="C152" s="92"/>
       <c r="D152" s="91"/>
       <c r="E152" s="75" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -33710,7 +33687,7 @@
       <c r="C153" s="92"/>
       <c r="D153" s="91"/>
       <c r="E153" s="75" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -33721,7 +33698,7 @@
       <c r="C154" s="92"/>
       <c r="D154" s="91"/>
       <c r="E154" s="75" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -33772,7 +33749,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="121" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B161" s="93">
         <v>21</v>
@@ -33780,7 +33757,7 @@
       <c r="C161" s="92"/>
       <c r="D161" s="91"/>
       <c r="E161" s="75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -33848,12 +33825,12 @@
         <v>732</v>
       </c>
       <c r="B170" s="120" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C170" s="39"/>
       <c r="D170" s="94"/>
       <c r="E170" s="75" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -33861,12 +33838,12 @@
         <v>751</v>
       </c>
       <c r="B171" s="122" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C171" s="39"/>
       <c r="D171" s="94"/>
       <c r="E171" s="75" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -33877,7 +33854,7 @@
       <c r="C172" s="39"/>
       <c r="D172" s="94"/>
       <c r="E172" s="75" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -33888,7 +33865,7 @@
       <c r="C173" s="39"/>
       <c r="D173" s="94"/>
       <c r="E173" s="75" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -33899,7 +33876,7 @@
       <c r="C174" s="39"/>
       <c r="D174" s="94"/>
       <c r="E174" s="75" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -33910,7 +33887,7 @@
       <c r="C175" s="39"/>
       <c r="D175" s="94"/>
       <c r="E175" s="75" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -33921,7 +33898,7 @@
       <c r="C176" s="39"/>
       <c r="D176" s="94"/>
       <c r="E176" s="75" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -33932,7 +33909,7 @@
       <c r="C177" s="39"/>
       <c r="D177" s="94"/>
       <c r="E177" s="75" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -33943,7 +33920,7 @@
       <c r="C178" s="39"/>
       <c r="D178" s="94"/>
       <c r="E178" s="75" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -33954,7 +33931,7 @@
       <c r="C179" s="39"/>
       <c r="D179" s="94"/>
       <c r="E179" s="75" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="17">
@@ -33962,12 +33939,12 @@
         <v>733</v>
       </c>
       <c r="B180" s="123" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C180" s="37"/>
       <c r="D180" s="38"/>
       <c r="E180" s="75" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="17">
@@ -34147,15 +34124,15 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="49" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B205" s="124" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C205" s="96"/>
       <c r="D205" s="97"/>
       <c r="E205" s="75" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -45561,7 +45538,7 @@
         <v>627</v>
       </c>
       <c r="Y1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -45635,10 +45612,10 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z2" t="s">
         <v>912</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>913</v>
       </c>
       <c r="AA2" t="b">
         <v>0</v>
@@ -45700,10 +45677,10 @@
         <v>549</v>
       </c>
       <c r="Y3" t="s">
+        <v>913</v>
+      </c>
+      <c r="Z3" t="s">
         <v>914</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>915</v>
       </c>
       <c r="AA3" t="b">
         <v>0</v>
@@ -45768,10 +45745,10 @@
         <v>564</v>
       </c>
       <c r="Y4" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z4" t="s">
         <v>916</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>917</v>
       </c>
       <c r="AA4" t="b">
         <v>0</v>
@@ -45836,10 +45813,10 @@
         <v>579</v>
       </c>
       <c r="Y5" t="s">
+        <v>917</v>
+      </c>
+      <c r="Z5" t="s">
         <v>918</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>919</v>
       </c>
       <c r="AA5" t="b">
         <v>0</v>
@@ -46023,10 +46000,10 @@
     </row>
     <row r="16" spans="1:27">
       <c r="J16" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="K16" t="s">
         <v>888</v>
-      </c>
-      <c r="K16" t="s">
-        <v>889</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -46414,22 +46391,22 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" s="65" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" s="65" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="65" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="65" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>427</v>
@@ -46452,60 +46429,60 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="65" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="65" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="65" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="65" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="65" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="65" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" s="65" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="65" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" s="65" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" s="65" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="65" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -46515,42 +46492,42 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="65" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="65" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="65" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="65" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="65" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="65" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="65" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="65" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B31" s="65" t="s">
         <v>673</v>
@@ -46583,7 +46560,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="65" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>706</v>
@@ -46658,27 +46635,27 @@
     </row>
     <row r="57" spans="1:9">
       <c r="B57" s="65" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="B58" s="65" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="B59" s="65" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="B60" s="65" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="B61" s="65" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="16">
@@ -46711,17 +46688,17 @@
         <v>681</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="65" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="B75" s="65" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -46734,22 +46711,22 @@
         <v>683</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="B80" s="65" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="B81" s="65" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="B82" s="65" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -46762,17 +46739,17 @@
     </row>
     <row r="86" spans="1:2">
       <c r="B86" s="65" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" s="65" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" s="65" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -46782,22 +46759,22 @@
     </row>
     <row r="90" spans="1:2">
       <c r="B90" s="65" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="B91" s="65" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="B92" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="72" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B94" s="65" t="s">
         <v>686</v>
@@ -46815,7 +46792,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="65" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B98" s="65" t="s">
         <v>693</v>
@@ -46838,7 +46815,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B104" s="65" t="s">
         <v>689</v>
@@ -46966,7 +46943,7 @@
     <row r="132" spans="1:5">
       <c r="A132" s="73"/>
       <c r="B132" s="65" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -46986,13 +46963,13 @@
     <row r="136" spans="1:5">
       <c r="A136" s="73"/>
       <c r="B136" s="65" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="73"/>
       <c r="B137" s="65" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -47008,22 +46985,22 @@
     </row>
     <row r="141" spans="1:5">
       <c r="B141" s="65" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="B142" s="65" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="B143" s="65" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="B144" s="65" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -47072,290 +47049,290 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="65" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B161" s="65" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="B162" s="65" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="B163" s="65" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="B164" s="65" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="B165" s="65" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" s="65" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="B167" s="65" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="B168" s="65" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="B169" s="65" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="B170" s="65" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="B171" s="65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" s="65" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="B173" s="65" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="B174" s="65" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="B175" s="65" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" s="65" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="65" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="65" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="65" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="65" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="65" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="65" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="65" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="65" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="65" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="65" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="65" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="65" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="65" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="65" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="65" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="65" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="65" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="65" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="65" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="65" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="65" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="65" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="65" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="65" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="65" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="65" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
